--- a/MoneyControl_CapstoneProject/src/main/resources/testdata/TestData.xlsx
+++ b/MoneyControl_CapstoneProject/src/main/resources/testdata/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\MoneyControl_CapstoneProject\src\main\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JATIN SHARMA\git\CapstoneProject-MoneyControl\MoneyControl_CapstoneProject\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
